--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H2">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I2">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J2">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.129005666666667</v>
+        <v>12.63490533333333</v>
       </c>
       <c r="N2">
-        <v>21.387017</v>
+        <v>37.904716</v>
       </c>
       <c r="O2">
-        <v>0.1534583556924785</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="P2">
-        <v>0.1534583556924786</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="Q2">
-        <v>37.321670660054</v>
+        <v>96.59257514789466</v>
       </c>
       <c r="R2">
-        <v>335.895035940486</v>
+        <v>869.333176331052</v>
       </c>
       <c r="S2">
-        <v>0.01851801507697948</v>
+        <v>0.03859273122399529</v>
       </c>
       <c r="T2">
-        <v>0.01851801507697949</v>
+        <v>0.03859273122399529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H3">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I3">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J3">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>30.041042</v>
       </c>
       <c r="O3">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681981</v>
       </c>
       <c r="P3">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681982</v>
       </c>
       <c r="Q3">
-        <v>52.423480834604</v>
+        <v>76.55357731491934</v>
       </c>
       <c r="R3">
-        <v>471.811327511436</v>
+        <v>688.982195834274</v>
       </c>
       <c r="S3">
-        <v>0.02601112949431769</v>
+        <v>0.0305863222822921</v>
       </c>
       <c r="T3">
-        <v>0.02601112949431769</v>
+        <v>0.03058632228229211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H4">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I4">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J4">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.376158666666666</v>
+        <v>9.983608666666667</v>
       </c>
       <c r="N4">
-        <v>19.128476</v>
+        <v>29.950826</v>
       </c>
       <c r="O4">
-        <v>0.1372526366749995</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="P4">
-        <v>0.1372526366749996</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="Q4">
-        <v>33.380376585512</v>
+        <v>76.32367991219134</v>
       </c>
       <c r="R4">
-        <v>300.423389269608</v>
+        <v>686.913119209722</v>
       </c>
       <c r="S4">
-        <v>0.01656245033927079</v>
+        <v>0.03049446875567277</v>
       </c>
       <c r="T4">
-        <v>0.01656245033927079</v>
+        <v>0.03049446875567278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H5">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I5">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J5">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.272821</v>
+        <v>7.489053333333334</v>
       </c>
       <c r="N5">
-        <v>21.818463</v>
+        <v>22.46716</v>
       </c>
       <c r="O5">
-        <v>0.1565541120445727</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="P5">
-        <v>0.1565541120445728</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="Q5">
-        <v>38.074570679706</v>
+        <v>57.25305633894666</v>
       </c>
       <c r="R5">
-        <v>342.671136117354</v>
+        <v>515.2775070505199</v>
       </c>
       <c r="S5">
-        <v>0.01889158393573629</v>
+        <v>0.02287496540658682</v>
       </c>
       <c r="T5">
-        <v>0.01889158393573629</v>
+        <v>0.02287496540658682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H6">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I6">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J6">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.442289666666667</v>
+        <v>7.985305333333333</v>
       </c>
       <c r="N6">
-        <v>22.326869</v>
+        <v>23.955916</v>
       </c>
       <c r="O6">
-        <v>0.1602020798179275</v>
+        <v>0.1456755824295123</v>
       </c>
       <c r="P6">
-        <v>0.1602020798179276</v>
+        <v>0.1456755824295124</v>
       </c>
       <c r="Q6">
-        <v>38.96177067087801</v>
+        <v>61.04685275749466</v>
       </c>
       <c r="R6">
-        <v>350.6559360379021</v>
+        <v>549.421674817452</v>
       </c>
       <c r="S6">
-        <v>0.01933178884945693</v>
+        <v>0.02439074408083174</v>
       </c>
       <c r="T6">
-        <v>0.01933178884945694</v>
+        <v>0.02439074408083175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H7">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I7">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J7">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.221681333333335</v>
+        <v>6.709121333333333</v>
       </c>
       <c r="N7">
-        <v>24.665044</v>
+        <v>20.127364</v>
       </c>
       <c r="O7">
-        <v>0.1769791970204463</v>
+        <v>0.122394212497272</v>
       </c>
       <c r="P7">
-        <v>0.1769791970204463</v>
+        <v>0.1223942124972721</v>
       </c>
       <c r="Q7">
-        <v>43.04203101272801</v>
+        <v>51.29055497207866</v>
       </c>
       <c r="R7">
-        <v>387.3782791145521</v>
+        <v>461.614994748708</v>
       </c>
       <c r="S7">
-        <v>0.02135630493333233</v>
+        <v>0.02049269935433676</v>
       </c>
       <c r="T7">
-        <v>0.02135630493333233</v>
+        <v>0.02049269935433677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>28.809988</v>
       </c>
       <c r="I8">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J8">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.129005666666667</v>
+        <v>12.63490533333333</v>
       </c>
       <c r="N8">
-        <v>21.387017</v>
+        <v>37.904716</v>
       </c>
       <c r="O8">
-        <v>0.1534583556924785</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="P8">
-        <v>0.1534583556924786</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="Q8">
-        <v>68.46218923619955</v>
+        <v>121.3371570114898</v>
       </c>
       <c r="R8">
-        <v>616.159703125796</v>
+        <v>1092.034413103408</v>
       </c>
       <c r="S8">
-        <v>0.03396910776118861</v>
+        <v>0.04847921572500083</v>
       </c>
       <c r="T8">
-        <v>0.03396910776118862</v>
+        <v>0.04847921572500084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>28.809988</v>
       </c>
       <c r="I9">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J9">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>30.041042</v>
       </c>
       <c r="O9">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681981</v>
       </c>
       <c r="P9">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681982</v>
       </c>
       <c r="Q9">
-        <v>96.16467328083287</v>
+        <v>96.1646732808329</v>
       </c>
       <c r="R9">
-        <v>865.4820595274959</v>
+        <v>865.4820595274961</v>
       </c>
       <c r="S9">
-        <v>0.04771433963681766</v>
+        <v>0.03842176671952404</v>
       </c>
       <c r="T9">
-        <v>0.04771433963681766</v>
+        <v>0.03842176671952405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>28.809988</v>
       </c>
       <c r="I10">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J10">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.376158666666666</v>
+        <v>9.983608666666667</v>
       </c>
       <c r="N10">
-        <v>19.128476</v>
+        <v>29.950826</v>
       </c>
       <c r="O10">
-        <v>0.1372526366749995</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="P10">
-        <v>0.1372526366749996</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="Q10">
-        <v>61.23235155758755</v>
+        <v>95.87588196112088</v>
       </c>
       <c r="R10">
-        <v>551.0911640182879</v>
+        <v>862.8829376500881</v>
       </c>
       <c r="S10">
-        <v>0.03038185561601742</v>
+        <v>0.03830638263576394</v>
       </c>
       <c r="T10">
-        <v>0.03038185561601743</v>
+        <v>0.03830638263576396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>28.809988</v>
       </c>
       <c r="I11">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J11">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.272821</v>
+        <v>7.489053333333334</v>
       </c>
       <c r="N11">
-        <v>21.818463</v>
+        <v>22.46716</v>
       </c>
       <c r="O11">
-        <v>0.1565541120445727</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="P11">
-        <v>0.1565541120445728</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="Q11">
-        <v>69.84329524538266</v>
+        <v>71.91984555489778</v>
       </c>
       <c r="R11">
-        <v>628.5896572084439</v>
+        <v>647.2786099940801</v>
       </c>
       <c r="S11">
-        <v>0.03465437563501757</v>
+        <v>0.02873495467867665</v>
       </c>
       <c r="T11">
-        <v>0.03465437563501757</v>
+        <v>0.02873495467867665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>28.809988</v>
       </c>
       <c r="I12">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J12">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.442289666666667</v>
+        <v>7.985305333333333</v>
       </c>
       <c r="N12">
-        <v>22.326869</v>
+        <v>23.955916</v>
       </c>
       <c r="O12">
-        <v>0.1602020798179275</v>
+        <v>0.1456755824295123</v>
       </c>
       <c r="P12">
-        <v>0.1602020798179276</v>
+        <v>0.1456755824295124</v>
       </c>
       <c r="Q12">
-        <v>71.47075866306356</v>
+        <v>76.68551694322311</v>
       </c>
       <c r="R12">
-        <v>643.236827967572</v>
+        <v>690.1696524890079</v>
       </c>
       <c r="S12">
-        <v>0.03546187946785386</v>
+        <v>0.0306390376240782</v>
       </c>
       <c r="T12">
-        <v>0.03546187946785387</v>
+        <v>0.03063903762407821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>28.809988</v>
       </c>
       <c r="I13">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J13">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.221681333333335</v>
+        <v>6.709121333333333</v>
       </c>
       <c r="N13">
-        <v>24.665044</v>
+        <v>20.127364</v>
       </c>
       <c r="O13">
-        <v>0.1769791970204463</v>
+        <v>0.122394212497272</v>
       </c>
       <c r="P13">
-        <v>0.1769791970204463</v>
+        <v>0.1223942124972721</v>
       </c>
       <c r="Q13">
-        <v>78.95551351771913</v>
+        <v>64.42990170129244</v>
       </c>
       <c r="R13">
-        <v>710.5996216594721</v>
+        <v>579.869115311632</v>
       </c>
       <c r="S13">
-        <v>0.03917561469981806</v>
+        <v>0.02574241214026285</v>
       </c>
       <c r="T13">
-        <v>0.03917561469981806</v>
+        <v>0.02574241214026286</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H14">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I14">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J14">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.129005666666667</v>
+        <v>12.63490533333333</v>
       </c>
       <c r="N14">
-        <v>21.387017</v>
+        <v>37.904716</v>
       </c>
       <c r="O14">
-        <v>0.1534583556924785</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="P14">
-        <v>0.1534583556924786</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="Q14">
-        <v>63.01046988309879</v>
+        <v>116.4741377791889</v>
       </c>
       <c r="R14">
-        <v>567.0942289478891</v>
+        <v>1048.2672400127</v>
       </c>
       <c r="S14">
-        <v>0.03126411038591746</v>
+        <v>0.04653623828722207</v>
       </c>
       <c r="T14">
-        <v>0.03126411038591746</v>
+        <v>0.04653623828722209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H15">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I15">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J15">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>30.041042</v>
       </c>
       <c r="O15">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681981</v>
       </c>
       <c r="P15">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681982</v>
       </c>
       <c r="Q15">
-        <v>88.50697468459045</v>
+        <v>92.31053109429443</v>
       </c>
       <c r="R15">
-        <v>796.562772161314</v>
+        <v>830.7947798486499</v>
       </c>
       <c r="S15">
-        <v>0.0439147943444372</v>
+        <v>0.03688187741357688</v>
       </c>
       <c r="T15">
-        <v>0.0439147943444372</v>
+        <v>0.0368818774135769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H16">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I16">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J16">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.376158666666666</v>
+        <v>9.983608666666667</v>
       </c>
       <c r="N16">
-        <v>19.128476</v>
+        <v>29.950826</v>
       </c>
       <c r="O16">
-        <v>0.1372526366749995</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="P16">
-        <v>0.1372526366749996</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="Q16">
-        <v>56.35635212276578</v>
+        <v>92.03331411649444</v>
       </c>
       <c r="R16">
-        <v>507.207169104892</v>
+        <v>828.29982704845</v>
       </c>
       <c r="S16">
-        <v>0.02796251507063246</v>
+        <v>0.03677111775841102</v>
       </c>
       <c r="T16">
-        <v>0.02796251507063246</v>
+        <v>0.03677111775841103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H17">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I17">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J17">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.272821</v>
+        <v>7.489053333333334</v>
       </c>
       <c r="N17">
-        <v>21.818463</v>
+        <v>22.46716</v>
       </c>
       <c r="O17">
-        <v>0.1565541120445727</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="P17">
-        <v>0.1565541120445728</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="Q17">
-        <v>64.28159690325234</v>
+        <v>69.03740129188888</v>
       </c>
       <c r="R17">
-        <v>578.534372129271</v>
+        <v>621.3366116269999</v>
       </c>
       <c r="S17">
-        <v>0.0318948096260014</v>
+        <v>0.02758329890658313</v>
       </c>
       <c r="T17">
-        <v>0.0318948096260014</v>
+        <v>0.02758329890658314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H18">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I18">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J18">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.442289666666667</v>
+        <v>7.985305333333333</v>
       </c>
       <c r="N18">
-        <v>22.326869</v>
+        <v>23.955916</v>
       </c>
       <c r="O18">
-        <v>0.1602020798179275</v>
+        <v>0.1456755824295123</v>
       </c>
       <c r="P18">
-        <v>0.1602020798179276</v>
+        <v>0.1456755824295124</v>
       </c>
       <c r="Q18">
-        <v>65.77946362077479</v>
+        <v>73.61207140585554</v>
       </c>
       <c r="R18">
-        <v>592.0151725869731</v>
+        <v>662.5086426526999</v>
       </c>
       <c r="S18">
-        <v>0.03263801104136769</v>
+        <v>0.02941106893835257</v>
       </c>
       <c r="T18">
-        <v>0.03263801104136769</v>
+        <v>0.02941106893835258</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H19">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I19">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J19">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.221681333333335</v>
+        <v>6.709121333333333</v>
       </c>
       <c r="N19">
-        <v>24.665044</v>
+        <v>20.127364</v>
       </c>
       <c r="O19">
-        <v>0.1769791970204463</v>
+        <v>0.122394212497272</v>
       </c>
       <c r="P19">
-        <v>0.1769791970204463</v>
+        <v>0.1223942124972721</v>
       </c>
       <c r="Q19">
-        <v>72.66819922232757</v>
+        <v>61.84764364592221</v>
       </c>
       <c r="R19">
-        <v>654.0137930009481</v>
+        <v>556.6287928132999</v>
       </c>
       <c r="S19">
-        <v>0.0360560174562685</v>
+        <v>0.02471069318122988</v>
       </c>
       <c r="T19">
-        <v>0.03605601745626849</v>
+        <v>0.02471069318122989</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H20">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I20">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J20">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.129005666666667</v>
+        <v>12.63490533333333</v>
       </c>
       <c r="N20">
-        <v>21.387017</v>
+        <v>37.904716</v>
       </c>
       <c r="O20">
-        <v>0.1534583556924785</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="P20">
-        <v>0.1534583556924786</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="Q20">
-        <v>36.25628591353989</v>
+        <v>40.85919908862001</v>
       </c>
       <c r="R20">
-        <v>326.306573221859</v>
+        <v>367.73279179758</v>
       </c>
       <c r="S20">
-        <v>0.01798939965195114</v>
+        <v>0.01632494098061319</v>
       </c>
       <c r="T20">
-        <v>0.01798939965195114</v>
+        <v>0.01632494098061319</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H21">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I21">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J21">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>30.041042</v>
       </c>
       <c r="O21">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681981</v>
       </c>
       <c r="P21">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681982</v>
       </c>
       <c r="Q21">
-        <v>50.92699967894821</v>
+        <v>32.38259101869001</v>
       </c>
       <c r="R21">
-        <v>458.342997110534</v>
+        <v>291.4433191682101</v>
       </c>
       <c r="S21">
-        <v>0.02526861555770257</v>
+        <v>0.01293818525499893</v>
       </c>
       <c r="T21">
-        <v>0.02526861555770258</v>
+        <v>0.01293818525499893</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H22">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I22">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J22">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.376158666666666</v>
+        <v>9.983608666666667</v>
       </c>
       <c r="N22">
-        <v>19.128476</v>
+        <v>29.950826</v>
       </c>
       <c r="O22">
-        <v>0.1372526366749995</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="P22">
-        <v>0.1372526366749996</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="Q22">
-        <v>32.42750005511689</v>
+        <v>32.28534313257001</v>
       </c>
       <c r="R22">
-        <v>291.847500496052</v>
+        <v>290.5680881931301</v>
       </c>
       <c r="S22">
-        <v>0.01608965848284291</v>
+        <v>0.01289933069992175</v>
       </c>
       <c r="T22">
-        <v>0.01608965848284292</v>
+        <v>0.01289933069992175</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H23">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I23">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J23">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.272821</v>
+        <v>7.489053333333334</v>
       </c>
       <c r="N23">
-        <v>21.818463</v>
+        <v>22.46716</v>
       </c>
       <c r="O23">
-        <v>0.1565541120445727</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="P23">
-        <v>0.1565541120445728</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="Q23">
-        <v>36.98769364245566</v>
+        <v>24.2183627862</v>
       </c>
       <c r="R23">
-        <v>332.889242782101</v>
+        <v>217.9652650758</v>
       </c>
       <c r="S23">
-        <v>0.01835230461070418</v>
+        <v>0.009676238202180262</v>
       </c>
       <c r="T23">
-        <v>0.01835230461070418</v>
+        <v>0.009676238202180264</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H24">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I24">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J24">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.442289666666667</v>
+        <v>7.985305333333333</v>
       </c>
       <c r="N24">
-        <v>22.326869</v>
+        <v>23.955916</v>
       </c>
       <c r="O24">
-        <v>0.1602020798179275</v>
+        <v>0.1456755824295123</v>
       </c>
       <c r="P24">
-        <v>0.1602020798179276</v>
+        <v>0.1456755824295124</v>
       </c>
       <c r="Q24">
-        <v>37.84956761469589</v>
+        <v>25.82315987262</v>
       </c>
       <c r="R24">
-        <v>340.646108532263</v>
+        <v>232.40843885358</v>
       </c>
       <c r="S24">
-        <v>0.01877994343099642</v>
+        <v>0.01031742105221227</v>
       </c>
       <c r="T24">
-        <v>0.01877994343099642</v>
+        <v>0.01031742105221227</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H25">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I25">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J25">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.221681333333335</v>
+        <v>6.709121333333333</v>
       </c>
       <c r="N25">
-        <v>24.665044</v>
+        <v>20.127364</v>
       </c>
       <c r="O25">
-        <v>0.1769791970204463</v>
+        <v>0.122394212497272</v>
       </c>
       <c r="P25">
-        <v>0.1769791970204463</v>
+        <v>0.1223942124972721</v>
       </c>
       <c r="Q25">
-        <v>41.81335280810978</v>
+        <v>21.69619138698</v>
       </c>
       <c r="R25">
-        <v>376.320175272988</v>
+        <v>195.26572248282</v>
       </c>
       <c r="S25">
-        <v>0.02074666766052318</v>
+        <v>0.008668526348946094</v>
       </c>
       <c r="T25">
-        <v>0.02074666766052318</v>
+        <v>0.008668526348946097</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H26">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I26">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J26">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.129005666666667</v>
+        <v>12.63490533333333</v>
       </c>
       <c r="N26">
-        <v>21.387017</v>
+        <v>37.904716</v>
       </c>
       <c r="O26">
-        <v>0.1534583556924785</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="P26">
-        <v>0.1534583556924786</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="Q26">
-        <v>38.89062460350922</v>
+        <v>73.82860313963688</v>
       </c>
       <c r="R26">
-        <v>350.015621431583</v>
+        <v>664.457428256732</v>
       </c>
       <c r="S26">
-        <v>0.01929648807312773</v>
+        <v>0.02949758232709383</v>
       </c>
       <c r="T26">
-        <v>0.01929648807312773</v>
+        <v>0.02949758232709384</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H27">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I27">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J27">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>30.041042</v>
       </c>
       <c r="O27">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681981</v>
       </c>
       <c r="P27">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681982</v>
       </c>
       <c r="Q27">
-        <v>54.62729501361755</v>
+        <v>58.51219588927044</v>
       </c>
       <c r="R27">
-        <v>491.6456551225579</v>
+        <v>526.609763003434</v>
       </c>
       <c r="S27">
-        <v>0.02710460316449597</v>
+        <v>0.02337804376602329</v>
       </c>
       <c r="T27">
-        <v>0.02710460316449596</v>
+        <v>0.0233780437660233</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H28">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I28">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J28">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.376158666666666</v>
+        <v>9.983608666666667</v>
       </c>
       <c r="N28">
-        <v>19.128476</v>
+        <v>29.950826</v>
       </c>
       <c r="O28">
-        <v>0.1372526366749995</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="P28">
-        <v>0.1372526366749996</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="Q28">
-        <v>34.78364371025822</v>
+        <v>58.33647840702244</v>
       </c>
       <c r="R28">
-        <v>313.052793392324</v>
+        <v>525.028305663202</v>
       </c>
       <c r="S28">
-        <v>0.01725871396609962</v>
+        <v>0.02330783735985418</v>
       </c>
       <c r="T28">
-        <v>0.01725871396609962</v>
+        <v>0.02330783735985419</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H29">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I29">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J29">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.272821</v>
+        <v>7.489053333333334</v>
       </c>
       <c r="N29">
-        <v>21.818463</v>
+        <v>22.46716</v>
       </c>
       <c r="O29">
-        <v>0.1565541120445727</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="P29">
-        <v>0.1565541120445728</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="Q29">
-        <v>39.67517554965966</v>
+        <v>43.76022865636889</v>
       </c>
       <c r="R29">
-        <v>357.0765799469369</v>
+        <v>393.84205790732</v>
       </c>
       <c r="S29">
-        <v>0.01968576127533253</v>
+        <v>0.01748402235109714</v>
       </c>
       <c r="T29">
-        <v>0.01968576127533253</v>
+        <v>0.01748402235109715</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H30">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I30">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J30">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.442289666666667</v>
+        <v>7.985305333333333</v>
       </c>
       <c r="N30">
-        <v>22.326869</v>
+        <v>23.955916</v>
       </c>
       <c r="O30">
-        <v>0.1602020798179275</v>
+        <v>0.1456755824295123</v>
       </c>
       <c r="P30">
-        <v>0.1602020798179276</v>
+        <v>0.1456755824295124</v>
       </c>
       <c r="Q30">
-        <v>40.59967226148122</v>
+        <v>46.65994107990355</v>
       </c>
       <c r="R30">
-        <v>365.397050353331</v>
+        <v>419.939469719132</v>
       </c>
       <c r="S30">
-        <v>0.02014447182460206</v>
+        <v>0.01864257746795792</v>
       </c>
       <c r="T30">
-        <v>0.02014447182460206</v>
+        <v>0.01864257746795793</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H31">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I31">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J31">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.221681333333335</v>
+        <v>6.709121333333333</v>
       </c>
       <c r="N31">
-        <v>24.665044</v>
+        <v>20.127364</v>
       </c>
       <c r="O31">
-        <v>0.1769791970204463</v>
+        <v>0.122394212497272</v>
       </c>
       <c r="P31">
-        <v>0.1769791970204463</v>
+        <v>0.1223942124972721</v>
       </c>
       <c r="Q31">
-        <v>44.85146138112845</v>
+        <v>39.20290997571422</v>
       </c>
       <c r="R31">
-        <v>403.663152430156</v>
+        <v>352.826189781428</v>
       </c>
       <c r="S31">
-        <v>0.0222540959016945</v>
+        <v>0.01566318493501929</v>
       </c>
       <c r="T31">
-        <v>0.0222540959016945</v>
+        <v>0.01566318493501929</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H32">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I32">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J32">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.129005666666667</v>
+        <v>12.63490533333333</v>
       </c>
       <c r="N32">
-        <v>21.387017</v>
+        <v>37.904716</v>
       </c>
       <c r="O32">
-        <v>0.1534583556924785</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="P32">
-        <v>0.1534583556924786</v>
+        <v>0.23049803564703</v>
       </c>
       <c r="Q32">
-        <v>65.34256724882412</v>
+        <v>127.8148623941342</v>
       </c>
       <c r="R32">
-        <v>588.0831052394171</v>
+        <v>1150.333761547208</v>
       </c>
       <c r="S32">
-        <v>0.03242123474331414</v>
+        <v>0.05106732710310476</v>
       </c>
       <c r="T32">
-        <v>0.03242123474331415</v>
+        <v>0.05106732710310477</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H33">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I33">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J33">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>30.041042</v>
       </c>
       <c r="O33">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681981</v>
       </c>
       <c r="P33">
-        <v>0.2155536187495753</v>
+        <v>0.1826791465681982</v>
       </c>
       <c r="Q33">
-        <v>91.78273001371578</v>
+        <v>101.2985204639551</v>
       </c>
       <c r="R33">
-        <v>826.0445701234421</v>
+        <v>911.686684175596</v>
       </c>
       <c r="S33">
-        <v>0.04554013655180426</v>
+        <v>0.04047295113178287</v>
       </c>
       <c r="T33">
-        <v>0.04554013655180427</v>
+        <v>0.04047295113178288</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H34">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I34">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J34">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.376158666666666</v>
+        <v>9.983608666666667</v>
       </c>
       <c r="N34">
-        <v>19.128476</v>
+        <v>29.950826</v>
       </c>
       <c r="O34">
-        <v>0.1372526366749995</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="P34">
-        <v>0.1372526366749996</v>
+        <v>0.1821305443630284</v>
       </c>
       <c r="Q34">
-        <v>58.44217215507511</v>
+        <v>100.9943117310431</v>
       </c>
       <c r="R34">
-        <v>525.979549395676</v>
+        <v>908.948805579388</v>
       </c>
       <c r="S34">
-        <v>0.02899744320013635</v>
+        <v>0.04035140715340473</v>
       </c>
       <c r="T34">
-        <v>0.02899744320013636</v>
+        <v>0.04035140715340474</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H35">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I35">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J35">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.272821</v>
+        <v>7.489053333333334</v>
       </c>
       <c r="N35">
-        <v>21.818463</v>
+        <v>22.46716</v>
       </c>
       <c r="O35">
-        <v>0.1565541120445727</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="P35">
-        <v>0.1565541120445728</v>
+        <v>0.136622478494959</v>
       </c>
       <c r="Q35">
-        <v>66.66074029134033</v>
+        <v>75.75935838134222</v>
       </c>
       <c r="R35">
-        <v>599.9466626220631</v>
+        <v>681.83422543208</v>
       </c>
       <c r="S35">
-        <v>0.03307527696178078</v>
+        <v>0.03026899894983492</v>
       </c>
       <c r="T35">
-        <v>0.03307527696178079</v>
+        <v>0.03026899894983493</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H36">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I36">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J36">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.442289666666667</v>
+        <v>7.985305333333333</v>
       </c>
       <c r="N36">
-        <v>22.326869</v>
+        <v>23.955916</v>
       </c>
       <c r="O36">
-        <v>0.1602020798179275</v>
+        <v>0.1456755824295123</v>
       </c>
       <c r="P36">
-        <v>0.1602020798179276</v>
+        <v>0.1456755824295124</v>
       </c>
       <c r="Q36">
-        <v>68.21404495485213</v>
+        <v>80.77944989920088</v>
       </c>
       <c r="R36">
-        <v>613.9264045936692</v>
+        <v>727.0150490928079</v>
       </c>
       <c r="S36">
-        <v>0.03384598520365058</v>
+        <v>0.03227473326607962</v>
       </c>
       <c r="T36">
-        <v>0.03384598520365059</v>
+        <v>0.03227473326607964</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H37">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I37">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J37">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.221681333333335</v>
+        <v>6.709121333333333</v>
       </c>
       <c r="N37">
-        <v>24.665044</v>
+        <v>20.127364</v>
       </c>
       <c r="O37">
-        <v>0.1769791970204463</v>
+        <v>0.122394212497272</v>
       </c>
       <c r="P37">
-        <v>0.1769791970204463</v>
+        <v>0.1223942124972721</v>
       </c>
       <c r="Q37">
-        <v>75.35774139353825</v>
+        <v>67.86955639020356</v>
       </c>
       <c r="R37">
-        <v>678.2196725418441</v>
+        <v>610.826007511832</v>
       </c>
       <c r="S37">
-        <v>0.03739049636880973</v>
+        <v>0.02711669653747715</v>
       </c>
       <c r="T37">
-        <v>0.03739049636880973</v>
+        <v>0.02711669653747716</v>
       </c>
     </row>
   </sheetData>
